--- a/data/trans_orig/Q5405-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5405-Habitat-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5240</v>
+        <v>4490</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.008219768331459468</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04557036232027688</v>
+        <v>0.03904305868505246</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -765,19 +765,19 @@
         <v>4394</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1198</v>
+        <v>1191</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11015</v>
+        <v>9816</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0293837226717978</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008008591727952041</v>
+        <v>0.007963270752516566</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07366368682309672</v>
+        <v>0.06564378634790118</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -786,19 +786,19 @@
         <v>5339</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1872</v>
+        <v>1985</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12517</v>
+        <v>11774</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02018373640120897</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007075755396567684</v>
+        <v>0.007505859729509274</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04732075055920517</v>
+        <v>0.04451075564111269</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>8265</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4308</v>
+        <v>4422</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14745</v>
+        <v>14591</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07187528193112711</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03746153907673536</v>
+        <v>0.03845451581847847</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1282336245548972</v>
+        <v>0.1268928152123191</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6327</v>
+        <v>6843</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01319612870496008</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04230978337152843</v>
+        <v>0.04576485606160988</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>11</v>
@@ -857,19 +857,19 @@
         <v>10238</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5520</v>
+        <v>5554</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>17701</v>
+        <v>17439</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03870399908538185</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02086666348585909</v>
+        <v>0.02099518435618319</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06691481679236908</v>
+        <v>0.0659244798228064</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>105779</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>98940</v>
+        <v>99335</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>110304</v>
+        <v>110306</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9199049497374134</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8604302112803527</v>
+        <v>0.8638659516265955</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9592581854454355</v>
+        <v>0.9592759297201465</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>145</v>
@@ -907,19 +907,19 @@
         <v>143168</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>136079</v>
+        <v>137015</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>147145</v>
+        <v>147236</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9574201486232421</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9100177004093645</v>
+        <v>0.9162769479896101</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9840192521071847</v>
+        <v>0.9846253443057231</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>254</v>
@@ -928,19 +928,19 @@
         <v>248947</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>239360</v>
+        <v>239101</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>255017</v>
+        <v>255048</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9411122645134091</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9048712673704592</v>
+        <v>0.9038915801410889</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9640595290204039</v>
+        <v>0.9641777816419754</v>
       </c>
     </row>
     <row r="7">
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6699</v>
+        <v>5799</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01285113720147519</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04591654205266425</v>
+        <v>0.03974914408792418</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -1053,19 +1053,19 @@
         <v>7485</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3385</v>
+        <v>3208</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17649</v>
+        <v>15290</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04097389369401908</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01853158214286144</v>
+        <v>0.01756215390259678</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09661288559807901</v>
+        <v>0.08369860646206101</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>8</v>
@@ -1074,19 +1074,19 @@
         <v>9360</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4382</v>
+        <v>4419</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>18872</v>
+        <v>18365</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02848700914323257</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0133354602465166</v>
+        <v>0.01345011830500131</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05743637016872724</v>
+        <v>0.055894605932165</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>4700</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1865</v>
+        <v>1788</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10582</v>
+        <v>10097</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03221591881612757</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01278424755741019</v>
+        <v>0.01225667075888796</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07253171067959384</v>
+        <v>0.06921002684973773</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>8</v>
@@ -1124,19 +1124,19 @@
         <v>7901</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3271</v>
+        <v>3376</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>15622</v>
+        <v>16195</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04324824083015302</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01790780823310734</v>
+        <v>0.01847860465536379</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.08551388429705377</v>
+        <v>0.08865341443535929</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>13</v>
@@ -1145,19 +1145,19 @@
         <v>12600</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>7058</v>
+        <v>6922</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>22157</v>
+        <v>21609</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03834974052301705</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02147986202771509</v>
+        <v>0.02106616334876921</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06743436551241346</v>
+        <v>0.06576666651770983</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>139314</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>132303</v>
+        <v>133260</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>143013</v>
+        <v>143848</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9549329439823973</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9068760164625257</v>
+        <v>0.9134346349795922</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9802873984779656</v>
+        <v>0.9860079973470705</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>156</v>
@@ -1195,19 +1195,19 @@
         <v>167294</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>156851</v>
+        <v>156544</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>174102</v>
+        <v>174079</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.915777865475828</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8586095140391597</v>
+        <v>0.8569321401385452</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9530457000559907</v>
+        <v>0.9529150751218839</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>295</v>
@@ -1216,19 +1216,19 @@
         <v>306608</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>295010</v>
+        <v>294941</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>314605</v>
+        <v>314793</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9331632503337504</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.897866252403833</v>
+        <v>0.8976566834921064</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9575020766573894</v>
+        <v>0.958075212163789</v>
       </c>
     </row>
     <row r="11">
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9287</v>
+        <v>9872</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02622485119145328</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08897705056122059</v>
+        <v>0.09458471955953539</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6880</v>
+        <v>7687</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01640363884368589</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05064758578653373</v>
+        <v>0.05658685663173388</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>4</v>
@@ -1362,19 +1362,19 @@
         <v>4966</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1087</v>
+        <v>1181</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>12104</v>
+        <v>13046</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02067075431933904</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.004525972107217808</v>
+        <v>0.004918095284103683</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0503872538526072</v>
+        <v>0.05430864993717048</v>
       </c>
     </row>
     <row r="13">
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5999</v>
+        <v>5741</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01753240136607723</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05747516948454866</v>
+        <v>0.05500662280894343</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -1412,19 +1412,19 @@
         <v>2716</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7341</v>
+        <v>7474</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01999003487345008</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006505970278177718</v>
+        <v>0.006545908016394725</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05404040653871502</v>
+        <v>0.05501439983870761</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5</v>
@@ -1433,19 +1433,19 @@
         <v>4546</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1791</v>
+        <v>1793</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>10142</v>
+        <v>10108</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01892224348462236</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007453553911184206</v>
+        <v>0.007463130878714387</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04222018634940521</v>
+        <v>0.04207895120355085</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>99804</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>92456</v>
+        <v>93075</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>103370</v>
+        <v>102660</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9562427474424695</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8858388160241599</v>
+        <v>0.8917695347587101</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9904126419567139</v>
+        <v>0.9836060222257972</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>135</v>
@@ -1483,19 +1483,19 @@
         <v>130906</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>124705</v>
+        <v>125441</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>134015</v>
+        <v>134043</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.963606326282864</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9179580384628306</v>
+        <v>0.9233792526738741</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9864910362006012</v>
+        <v>0.9867018601597606</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>233</v>
@@ -1504,19 +1504,19 @@
         <v>230710</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>222894</v>
+        <v>221249</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>236328</v>
+        <v>235330</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9604070021960386</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9278707702188108</v>
+        <v>0.9210223995246878</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9837932297856736</v>
+        <v>0.9796387361511152</v>
       </c>
     </row>
     <row r="15">
@@ -1611,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5837</v>
+        <v>5896</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01229781107291278</v>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0425407320118685</v>
+        <v>0.04296629533282753</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -1629,19 +1629,19 @@
         <v>5017</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1816</v>
+        <v>1874</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11375</v>
+        <v>11409</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02403052842266958</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008698569537319819</v>
+        <v>0.008978463094961682</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05448460590318249</v>
+        <v>0.05464743922175293</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -1650,19 +1650,19 @@
         <v>6705</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2872</v>
+        <v>2686</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13095</v>
+        <v>13257</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01937747317790065</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008300732652451384</v>
+        <v>0.007761757055383601</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03784799225615611</v>
+        <v>0.0383164545249227</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>4108</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1594</v>
+        <v>1624</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9093</v>
+        <v>8304</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02993963191445618</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01161658137287645</v>
+        <v>0.01183857195405055</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06626421143077206</v>
+        <v>0.06051377493075011</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -1700,19 +1700,19 @@
         <v>5176</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2004</v>
+        <v>1789</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11273</v>
+        <v>11584</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02479043916697786</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.009600938805648081</v>
+        <v>0.008569723691542134</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05399657041939698</v>
+        <v>0.05548319647510912</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>10</v>
@@ -1721,19 +1721,19 @@
         <v>9284</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4628</v>
+        <v>4625</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>16596</v>
+        <v>16176</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02683254736798014</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01337501690398814</v>
+        <v>0.01336659256169654</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04796715549606125</v>
+        <v>0.04675077517180472</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>131421</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>126286</v>
+        <v>126413</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>134761</v>
+        <v>134744</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.957762557012631</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9203392353208022</v>
+        <v>0.921263699496478</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9820986488616144</v>
+        <v>0.9819786388063705</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>190</v>
@@ -1771,19 +1771,19 @@
         <v>198584</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>190287</v>
+        <v>190707</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>203695</v>
+        <v>203677</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9511790324103525</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9114374134334374</v>
+        <v>0.9134460433778864</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9756558946523985</v>
+        <v>0.9755724991648601</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>339</v>
@@ -1792,19 +1792,19 @@
         <v>330007</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>321033</v>
+        <v>320962</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>336345</v>
+        <v>336755</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9537899794541193</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9278556906882452</v>
+        <v>0.9276491705410873</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.972109689885034</v>
+        <v>0.9732944374668018</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>7245</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2784</v>
+        <v>2867</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>14408</v>
+        <v>14412</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01441809987404169</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.005540652978728638</v>
+        <v>0.005706213084557945</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02867365366648616</v>
+        <v>0.02868307430575869</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>17</v>
@@ -1917,19 +1917,19 @@
         <v>19124</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>11481</v>
+        <v>11577</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>29687</v>
+        <v>29993</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02825542475754658</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01696330761689787</v>
+        <v>0.0171040510530135</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04386157750209649</v>
+        <v>0.04431244599907519</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>24</v>
@@ -1938,19 +1938,19 @@
         <v>26369</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>17296</v>
+        <v>17891</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>38089</v>
+        <v>39753</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02235977634296704</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01466587859601042</v>
+        <v>0.01517086112667945</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03229780288102699</v>
+        <v>0.03370861545688648</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>18903</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11710</v>
+        <v>12484</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>28069</v>
+        <v>28613</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03762027967193211</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02330593310157119</v>
+        <v>0.02484544981174411</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05586214034409136</v>
+        <v>0.05694494872669317</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>18</v>
@@ -1988,19 +1988,19 @@
         <v>17765</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>10686</v>
+        <v>10771</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>27338</v>
+        <v>27269</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02624715923202036</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01578745328979385</v>
+        <v>0.01591415225280615</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04039063373303959</v>
+        <v>0.04028819979137103</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>39</v>
@@ -2009,19 +2009,19 @@
         <v>36668</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>25873</v>
+        <v>26258</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>49635</v>
+        <v>50270</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03109288772758518</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02193919458647274</v>
+        <v>0.02226546291443803</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04208846217022089</v>
+        <v>0.04262663453013012</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>476318</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>465949</v>
+        <v>464648</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>484610</v>
+        <v>484327</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9479616204540262</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9273245961582749</v>
+        <v>0.924734930898388</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9644642018441343</v>
+        <v>0.9639002161145193</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>626</v>
@@ -2059,19 +2059,19 @@
         <v>639952</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>626865</v>
+        <v>627579</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>650695</v>
+        <v>650948</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.945497416010433</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9261617831071114</v>
+        <v>0.9272163529897057</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9613690840457205</v>
+        <v>0.9617427551384777</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1121</v>
@@ -2080,19 +2080,19 @@
         <v>1116271</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1100261</v>
+        <v>1099327</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1130373</v>
+        <v>1130302</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9465473359294477</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9329715509956085</v>
+        <v>0.9321797971421373</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9585051405879949</v>
+        <v>0.9584448090069819</v>
       </c>
     </row>
     <row r="23">
@@ -2424,19 +2424,19 @@
         <v>5204</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2002</v>
+        <v>2055</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11870</v>
+        <v>11523</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03729513544492751</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01434353524532887</v>
+        <v>0.01472685511942226</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08506251600016171</v>
+        <v>0.08257361544355234</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -2445,19 +2445,19 @@
         <v>5550</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2193</v>
+        <v>2176</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13278</v>
+        <v>13153</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03327367461769372</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01314570010294081</v>
+        <v>0.01304373560960045</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07960906511457555</v>
+        <v>0.07886192475451573</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -2466,19 +2466,19 @@
         <v>10754</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5378</v>
+        <v>5337</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18852</v>
+        <v>18604</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03510561043940887</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0175569590727945</v>
+        <v>0.017423187407475</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06154205147876618</v>
+        <v>0.06073103452144012</v>
       </c>
     </row>
     <row r="5">
@@ -2495,19 +2495,19 @@
         <v>5356</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1122</v>
+        <v>2082</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11087</v>
+        <v>11764</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03838419342557021</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.008043512150039272</v>
+        <v>0.01491649638254464</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07945347765886679</v>
+        <v>0.08430219580908359</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -2516,19 +2516,19 @@
         <v>8361</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4144</v>
+        <v>4107</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15884</v>
+        <v>15778</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05012726373760568</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02484492753205851</v>
+        <v>0.02462299939657688</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09523349040750236</v>
+        <v>0.09459825368447329</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>13</v>
@@ -2537,19 +2537,19 @@
         <v>13717</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>8222</v>
+        <v>7443</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>22916</v>
+        <v>21833</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04477782678279262</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02684081103689966</v>
+        <v>0.02429823348051888</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0748067893616999</v>
+        <v>0.07127195868922015</v>
       </c>
     </row>
     <row r="6">
@@ -2566,19 +2566,19 @@
         <v>128986</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>121445</v>
+        <v>121414</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>134327</v>
+        <v>134178</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9243206711295022</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.870277449870563</v>
+        <v>0.8700570182021864</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.962596359759093</v>
+        <v>0.9615254316781714</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>144</v>
@@ -2587,19 +2587,19 @@
         <v>152877</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>143309</v>
+        <v>144308</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>159149</v>
+        <v>158589</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9165990616447006</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8592355962725501</v>
+        <v>0.8652219211033954</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9542043955988492</v>
+        <v>0.9508491923720774</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>263</v>
@@ -2608,19 +2608,19 @@
         <v>281863</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>270598</v>
+        <v>270455</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>290064</v>
+        <v>290156</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9201165627777985</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8833438680798107</v>
+        <v>0.882877263806586</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9468888495428569</v>
+        <v>0.94718934775823</v>
       </c>
     </row>
     <row r="7">
@@ -2712,19 +2712,19 @@
         <v>6277</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2076</v>
+        <v>3001</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12068</v>
+        <v>12616</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04053095164455026</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01340133564076982</v>
+        <v>0.01937838064029718</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07791744900305655</v>
+        <v>0.08145553233449071</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -2733,19 +2733,19 @@
         <v>8856</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4395</v>
+        <v>4269</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16818</v>
+        <v>16408</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0462668532313436</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02296196065192574</v>
+        <v>0.02230373403919051</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08785803798580336</v>
+        <v>0.08571716573275046</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>14</v>
@@ -2754,19 +2754,19 @@
         <v>15134</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>9590</v>
+        <v>8844</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>25815</v>
+        <v>23842</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04370153308656941</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02769217076219969</v>
+        <v>0.02553750859375236</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07454678207455855</v>
+        <v>0.06884692006015582</v>
       </c>
     </row>
     <row r="9">
@@ -2783,19 +2783,19 @@
         <v>13259</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6490</v>
+        <v>6716</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>22539</v>
+        <v>23353</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08560780663281173</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04190667638544568</v>
+        <v>0.04336152810188386</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1455279720906963</v>
+        <v>0.1507838818088534</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>14</v>
@@ -2804,19 +2804,19 @@
         <v>15496</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>8795</v>
+        <v>8804</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>24502</v>
+        <v>24171</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.08095402757601877</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.04594535308210098</v>
+        <v>0.04599214623388428</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1279986742823429</v>
+        <v>0.1262744323350785</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>25</v>
@@ -2825,19 +2825,19 @@
         <v>28755</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>19047</v>
+        <v>19417</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>40614</v>
+        <v>42231</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08303538008583292</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05500267633534022</v>
+        <v>0.05606920354318538</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1172796489089443</v>
+        <v>0.1219492989113302</v>
       </c>
     </row>
     <row r="10">
@@ -2854,19 +2854,19 @@
         <v>135342</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>125521</v>
+        <v>125459</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>143059</v>
+        <v>142919</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.873861241722638</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8104498268890403</v>
+        <v>0.8100490459648187</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9236905606176443</v>
+        <v>0.9227843534484051</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>155</v>
@@ -2875,19 +2875,19 @@
         <v>167067</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>155969</v>
+        <v>156303</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>175936</v>
+        <v>175101</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8727791191926376</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8147986269208575</v>
+        <v>0.8165448668570513</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9191099869785544</v>
+        <v>0.9147475535645601</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>276</v>
@@ -2896,19 +2896,19 @@
         <v>302409</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>288647</v>
+        <v>289079</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>314594</v>
+        <v>315134</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8732630868275977</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8335220914182907</v>
+        <v>0.8347704085736649</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9084495366018037</v>
+        <v>0.9100076588436947</v>
       </c>
     </row>
     <row r="11">
@@ -3000,19 +3000,19 @@
         <v>4638</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1086</v>
+        <v>1116</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10396</v>
+        <v>10630</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04477212723128198</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01048660466835016</v>
+        <v>0.01077495791554886</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1003521265433991</v>
+        <v>0.1026115203176365</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -3021,19 +3021,19 @@
         <v>7677</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3110</v>
+        <v>3122</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15975</v>
+        <v>16418</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05443987009190881</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02205677673913325</v>
+        <v>0.02213911907518376</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1132830635413712</v>
+        <v>0.1164224722596287</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>10</v>
@@ -3042,19 +3042,19 @@
         <v>12315</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>6443</v>
+        <v>7052</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>21322</v>
+        <v>21135</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0503454638656946</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0263372809056526</v>
+        <v>0.02883067298763143</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08716660916186682</v>
+        <v>0.08640035474998874</v>
       </c>
     </row>
     <row r="13">
@@ -3071,19 +3071,19 @@
         <v>6495</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2141</v>
+        <v>2161</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13604</v>
+        <v>14748</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06269067593719325</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0206685433405249</v>
+        <v>0.0208637890727961</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1313138651012005</v>
+        <v>0.1423627788527622</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -3092,19 +3092,19 @@
         <v>10607</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5456</v>
+        <v>5212</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18623</v>
+        <v>18518</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07521868290953264</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03868734447389575</v>
+        <v>0.03695714051219268</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1320618192622036</v>
+        <v>0.1313143891510507</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>15</v>
@@ -3113,19 +3113,19 @@
         <v>17102</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9623</v>
+        <v>10617</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>28153</v>
+        <v>28308</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06991292017989839</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03934091657027582</v>
+        <v>0.04340440218488224</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1150891639518975</v>
+        <v>0.1157233601078157</v>
       </c>
     </row>
     <row r="14">
@@ -3142,19 +3142,19 @@
         <v>92465</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>83524</v>
+        <v>83563</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>98079</v>
+        <v>97878</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8925371968315248</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8062290464935787</v>
+        <v>0.8066092659940824</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9467275909660604</v>
+        <v>0.9447883329898283</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>113</v>
@@ -3163,19 +3163,19 @@
         <v>122735</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>112366</v>
+        <v>112552</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>129488</v>
+        <v>129932</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8703414469985585</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7968110865068794</v>
+        <v>0.7981308749542894</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9182285337317343</v>
+        <v>0.921382579180875</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>194</v>
@@ -3184,19 +3184,19 @@
         <v>215200</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>202574</v>
+        <v>203074</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>224919</v>
+        <v>224280</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.879741615954407</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8281252775487802</v>
+        <v>0.8301722179577919</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9194759917403466</v>
+        <v>0.9168612353645326</v>
       </c>
     </row>
     <row r="15">
@@ -3288,19 +3288,19 @@
         <v>3089</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>980</v>
+        <v>988</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9041</v>
+        <v>9111</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01911382076795573</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006061009815212605</v>
+        <v>0.006113293895295518</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05594017385589551</v>
+        <v>0.05637321356950518</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -3309,19 +3309,19 @@
         <v>9312</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4186</v>
+        <v>4323</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17211</v>
+        <v>16849</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03820323255585065</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01717174522654253</v>
+        <v>0.01773442742358191</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07060927709911276</v>
+        <v>0.06912356785652751</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -3330,19 +3330,19 @@
         <v>12401</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6382</v>
+        <v>7070</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21251</v>
+        <v>21373</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03059251374870151</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01574504670043913</v>
+        <v>0.01744143572439629</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05242578999172661</v>
+        <v>0.05272597418304759</v>
       </c>
     </row>
     <row r="17">
@@ -3359,19 +3359,19 @@
         <v>11352</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5231</v>
+        <v>5990</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>20316</v>
+        <v>22150</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0702425768338774</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0323703876067232</v>
+        <v>0.03706684748300665</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1257091355715509</v>
+        <v>0.1370531368813466</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>11</v>
@@ -3380,19 +3380,19 @@
         <v>11395</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6203</v>
+        <v>6182</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>19466</v>
+        <v>19220</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04674864717674184</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02545013262297394</v>
+        <v>0.02536005800819941</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07985984399750391</v>
+        <v>0.07885037910361195</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>20</v>
@@ -3401,19 +3401,19 @@
         <v>22747</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>14403</v>
+        <v>13459</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>34537</v>
+        <v>35115</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0561153942657635</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03553047235374895</v>
+        <v>0.03320283130679755</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08520095183484948</v>
+        <v>0.08662663915675671</v>
       </c>
     </row>
     <row r="18">
@@ -3430,19 +3430,19 @@
         <v>147172</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>137757</v>
+        <v>137066</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>154284</v>
+        <v>153471</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9106436023981669</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8523858648913172</v>
+        <v>0.8481132579202473</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.954649472036462</v>
+        <v>0.9496202596131406</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>211</v>
@@ -3451,19 +3451,19 @@
         <v>223043</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>213689</v>
+        <v>213097</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>231191</v>
+        <v>230428</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9150481202674076</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8766732264648051</v>
+        <v>0.8742441571007541</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9484755120304421</v>
+        <v>0.9453462453946267</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>346</v>
@@ -3472,19 +3472,19 @@
         <v>370215</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>357030</v>
+        <v>356179</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>380429</v>
+        <v>381477</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.913292091985535</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8807671651149939</v>
+        <v>0.8786678042309064</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9384899552769307</v>
+        <v>0.9410759458680722</v>
       </c>
     </row>
     <row r="19">
@@ -3576,19 +3576,19 @@
         <v>19209</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>11564</v>
+        <v>11868</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>30076</v>
+        <v>28999</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03432430949097351</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02066403025955053</v>
+        <v>0.02120735158087489</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05374149188419765</v>
+        <v>0.0518171831798356</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>28</v>
@@ -3597,19 +3597,19 @@
         <v>31395</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>20995</v>
+        <v>21395</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>44502</v>
+        <v>43463</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04225588818751946</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02825735605637962</v>
+        <v>0.02879605204033956</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05989701835333207</v>
+        <v>0.05849842573873892</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>46</v>
@@ -3618,19 +3618,19 @@
         <v>50604</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>36952</v>
+        <v>38376</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>66094</v>
+        <v>67782</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03884826943616802</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02836763365758283</v>
+        <v>0.02946084382348716</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05073988833633487</v>
+        <v>0.05203548415738152</v>
       </c>
     </row>
     <row r="21">
@@ -3647,19 +3647,19 @@
         <v>36462</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>25069</v>
+        <v>25287</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>51609</v>
+        <v>52936</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.06515289036778553</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04479538335827665</v>
+        <v>0.04518507511609017</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09221930553812853</v>
+        <v>0.0945903448280994</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>43</v>
@@ -3668,19 +3668,19 @@
         <v>45859</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>33837</v>
+        <v>33010</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>61150</v>
+        <v>61037</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06172345638650364</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04554253541166191</v>
+        <v>0.04442936896667516</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08230443038332283</v>
+        <v>0.08215162156771952</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>73</v>
@@ -3689,19 +3689,19 @@
         <v>82321</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>64894</v>
+        <v>63989</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>103344</v>
+        <v>101298</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.06319683312375106</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0498187105876676</v>
+        <v>0.04912367557746735</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.07933591521784379</v>
+        <v>0.07776565408279731</v>
       </c>
     </row>
     <row r="22">
@@ -3718,19 +3718,19 @@
         <v>503966</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>487114</v>
+        <v>486612</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>517171</v>
+        <v>517510</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.900522800141241</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8704107597377291</v>
+        <v>0.8695131017917431</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.924119026237864</v>
+        <v>0.9247236303104305</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>623</v>
@@ -3739,19 +3739,19 @@
         <v>665721</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>647567</v>
+        <v>648182</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>682162</v>
+        <v>681602</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8960206554259769</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8715867816917258</v>
+        <v>0.8724137051188307</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9181487881306915</v>
+        <v>0.9173958451849468</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1079</v>
@@ -3760,19 +3760,19 @@
         <v>1169687</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1144721</v>
+        <v>1146537</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1191513</v>
+        <v>1191621</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8979548974400809</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8787888150770414</v>
+        <v>0.8801827171509997</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9147107254184065</v>
+        <v>0.914793215760022</v>
       </c>
     </row>
     <row r="23">
@@ -4104,19 +4104,19 @@
         <v>4193</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1623</v>
+        <v>1594</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9807</v>
+        <v>8985</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.030665321924252</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01187040364129815</v>
+        <v>0.01165738249122261</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07172683898633719</v>
+        <v>0.06570870798596705</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -4128,7 +4128,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7002</v>
+        <v>8022</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01337902851653804</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04038200827526919</v>
+        <v>0.04626516822341219</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -4146,19 +4146,19 @@
         <v>6513</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2756</v>
+        <v>2572</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12497</v>
+        <v>12823</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02100055254108077</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008887821187646824</v>
+        <v>0.008292887230653519</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04029754257797839</v>
+        <v>0.04134819203199994</v>
       </c>
     </row>
     <row r="5">
@@ -4178,7 +4178,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6049</v>
+        <v>5827</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01236972441455132</v>
@@ -4187,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0442358087069924</v>
+        <v>0.04261341731998104</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -4196,19 +4196,19 @@
         <v>9230</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4247</v>
+        <v>4452</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16427</v>
+        <v>17152</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05323298842820155</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02449584236299909</v>
+        <v>0.02567572974505936</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09474082215138765</v>
+        <v>0.0989237696471022</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>10</v>
@@ -4217,19 +4217,19 @@
         <v>10921</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5276</v>
+        <v>5384</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>19472</v>
+        <v>19660</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03521638179914317</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0170116916291601</v>
+        <v>0.01735923923993927</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06278853551792692</v>
+        <v>0.06339356320079326</v>
       </c>
     </row>
     <row r="6">
@@ -4246,19 +4246,19 @@
         <v>130850</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>124976</v>
+        <v>125043</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>134190</v>
+        <v>134221</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9569649536611967</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9140071258659748</v>
+        <v>0.9144986884811378</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9813968087880613</v>
+        <v>0.9816221118292551</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>147</v>
@@ -4267,19 +4267,19 @@
         <v>161841</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>153570</v>
+        <v>153370</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>167572</v>
+        <v>167635</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9333879830552604</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8856865643631158</v>
+        <v>0.8845339656840066</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9664389075279534</v>
+        <v>0.9668031854152116</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>288</v>
@@ -4288,19 +4288,19 @@
         <v>292691</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>283506</v>
+        <v>282564</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>300081</v>
+        <v>299742</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9437830656597761</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9141674714229433</v>
+        <v>0.911128657898042</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.967611616397999</v>
+        <v>0.9665212675150986</v>
       </c>
     </row>
     <row r="7">
@@ -4392,19 +4392,19 @@
         <v>4343</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1673</v>
+        <v>1721</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10588</v>
+        <v>10053</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02633226143359972</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0101417109316189</v>
+        <v>0.01043487605302902</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06419019043958442</v>
+        <v>0.06094946739799119</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -4416,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9873</v>
+        <v>10019</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.00917455197644822</v>
@@ -4425,7 +4425,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04504714749032095</v>
+        <v>0.04571486241492776</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -4434,19 +4434,19 @@
         <v>6354</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2585</v>
+        <v>2547</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>14436</v>
+        <v>14621</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01654236652578522</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.006730454393569875</v>
+        <v>0.006631462202949899</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03758338783105258</v>
+        <v>0.03806551093756894</v>
       </c>
     </row>
     <row r="9">
@@ -4463,19 +4463,19 @@
         <v>4160</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1638</v>
+        <v>1618</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9243</v>
+        <v>9200</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02522308210517663</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.009930979797505658</v>
+        <v>0.009812371101759209</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05604079220548259</v>
+        <v>0.05577454867420766</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>13</v>
@@ -4484,19 +4484,19 @@
         <v>15492</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>8545</v>
+        <v>8980</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>24822</v>
+        <v>25323</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0706890627057542</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03898774331058837</v>
+        <v>0.04097295150877342</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1132588621469161</v>
+        <v>0.1155447690872899</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>18</v>
@@ -4505,19 +4505,19 @@
         <v>19653</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>12098</v>
+        <v>11130</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>30293</v>
+        <v>29053</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05116519128192703</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0314979756667246</v>
+        <v>0.02897547782546925</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07886617462121401</v>
+        <v>0.07563709283349974</v>
       </c>
     </row>
     <row r="10">
@@ -4534,19 +4534,19 @@
         <v>156437</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>149590</v>
+        <v>148779</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>160019</v>
+        <v>160608</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9484446564612237</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9069293124555063</v>
+        <v>0.9020142267564394</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9701571603594084</v>
+        <v>0.9737309788759766</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>168</v>
@@ -4555,19 +4555,19 @@
         <v>201660</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>191239</v>
+        <v>191622</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>209505</v>
+        <v>208926</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9201363853177976</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8725888172500185</v>
+        <v>0.8743365776680607</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9559302117181522</v>
+        <v>0.9532922401026938</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>333</v>
@@ -4576,19 +4576,19 @@
         <v>358097</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>345161</v>
+        <v>347757</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>366588</v>
+        <v>368408</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9322924421922878</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.898613276341174</v>
+        <v>0.9053714171739261</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9543981327182957</v>
+        <v>0.9591354540199608</v>
       </c>
     </row>
     <row r="11">
@@ -4683,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5629</v>
+        <v>4614</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.009131618732838123</v>
@@ -4692,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04893340694232773</v>
+        <v>0.04010808799656319</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -4701,19 +4701,19 @@
         <v>7296</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3285</v>
+        <v>3274</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>14656</v>
+        <v>14997</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05116205863719643</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02303391848043298</v>
+        <v>0.02296239345665035</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1027764225371806</v>
+        <v>0.1051708585310323</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -4722,19 +4722,19 @@
         <v>8346</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3369</v>
+        <v>3614</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>15956</v>
+        <v>16619</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03239501369423941</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0130749383687375</v>
+        <v>0.01402696970728254</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06193512901687699</v>
+        <v>0.06450595075657199</v>
       </c>
     </row>
     <row r="13">
@@ -4751,19 +4751,19 @@
         <v>2552</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7170</v>
+        <v>7113</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0221835358764896</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006836825340969916</v>
+        <v>0.006852487496301454</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06233194847113372</v>
+        <v>0.06183210740888277</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -4772,19 +4772,19 @@
         <v>8702</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3791</v>
+        <v>3793</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16566</v>
+        <v>16485</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06102482100956771</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02658880018034684</v>
+        <v>0.02659865717761712</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1161748354943016</v>
+        <v>0.1156058707920023</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -4793,19 +4793,19 @@
         <v>11254</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5242</v>
+        <v>5427</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>19953</v>
+        <v>19354</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04368176808427347</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02034776709016938</v>
+        <v>0.0210645995153876</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07744905207228236</v>
+        <v>0.07512277518539649</v>
       </c>
     </row>
     <row r="14">
@@ -4822,19 +4822,19 @@
         <v>111433</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>106230</v>
+        <v>106799</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>114142</v>
+        <v>114148</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9686848453906722</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9234614520888003</v>
+        <v>0.9284025046376448</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9922374380404622</v>
+        <v>0.9922883161121057</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>105</v>
@@ -4843,19 +4843,19 @@
         <v>126599</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>116565</v>
+        <v>116806</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>133570</v>
+        <v>133819</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8878131203532359</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8174498321700379</v>
+        <v>0.8191392035828206</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9366992385557896</v>
+        <v>0.9384461710893414</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>215</v>
@@ -4864,19 +4864,19 @@
         <v>238031</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>227607</v>
+        <v>226977</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>246252</v>
+        <v>245788</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9239232182214872</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8834615220587207</v>
+        <v>0.8810167427549918</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9558310070981622</v>
+        <v>0.9540295596665591</v>
       </c>
     </row>
     <row r="15">
@@ -4971,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3985</v>
+        <v>4783</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004532615874836853</v>
@@ -4980,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02282116526480011</v>
+        <v>0.02738973217448271</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -4989,19 +4989,19 @@
         <v>3842</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1218</v>
+        <v>1236</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10103</v>
+        <v>10339</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01582639675106947</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005016563484085771</v>
+        <v>0.005091789546467184</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04161346424859228</v>
+        <v>0.04258726515884587</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -5010,19 +5010,19 @@
         <v>4634</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1235</v>
+        <v>1245</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11088</v>
+        <v>11358</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01110166486080867</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002958275325945176</v>
+        <v>0.002983437988302982</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02656354430903623</v>
+        <v>0.02721061859720821</v>
       </c>
     </row>
     <row r="17">
@@ -5039,19 +5039,19 @@
         <v>4784</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1742</v>
+        <v>1772</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10923</v>
+        <v>11422</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02739581191224401</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.009977817942717649</v>
+        <v>0.01014593848088231</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06255305233507345</v>
+        <v>0.06541329681084229</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -5060,19 +5060,19 @@
         <v>8049</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3255</v>
+        <v>3735</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17066</v>
+        <v>17975</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03315415631548808</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01340704255548321</v>
+        <v>0.01538572279419649</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0702935283385525</v>
+        <v>0.07403798067754561</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>11</v>
@@ -5081,19 +5081,19 @@
         <v>12833</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6803</v>
+        <v>6673</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>23376</v>
+        <v>21468</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03074516381463591</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01629882049915115</v>
+        <v>0.01598614206706433</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05600380559022319</v>
+        <v>0.05143270989089518</v>
       </c>
     </row>
     <row r="18">
@@ -5110,19 +5110,19 @@
         <v>169043</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>162767</v>
+        <v>162288</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>172367</v>
+        <v>172200</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9680715722129192</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9321309601134464</v>
+        <v>0.929389813893602</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9871104958882473</v>
+        <v>0.9861531186795671</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>189</v>
@@ -5131,19 +5131,19 @@
         <v>230889</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>221573</v>
+        <v>220897</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>236532</v>
+        <v>236477</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9510194469334424</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9126472117352437</v>
+        <v>0.9098610612612218</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9742609525452758</v>
+        <v>0.9740339081681454</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>373</v>
@@ -5152,19 +5152,19 @@
         <v>399933</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>388773</v>
+        <v>390415</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>407335</v>
+        <v>407307</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9581531713245555</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9314161245344632</v>
+        <v>0.9353506137926013</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.975885901406938</v>
+        <v>0.9758183227142113</v>
       </c>
     </row>
     <row r="19">
@@ -5256,19 +5256,19 @@
         <v>10378</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5824</v>
+        <v>5850</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>17789</v>
+        <v>18011</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01755064381698297</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.009849077333354526</v>
+        <v>0.009893586704926913</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03008257111296432</v>
+        <v>0.03045904812380296</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>12</v>
@@ -5277,19 +5277,19 @@
         <v>15468</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>8379</v>
+        <v>8319</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>26428</v>
+        <v>25536</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01988399581677804</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01077150153657402</v>
+        <v>0.01069434353200324</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03397191913538247</v>
+        <v>0.03282495538924919</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>24</v>
@@ -5298,19 +5298,19 @@
         <v>25847</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>16462</v>
+        <v>16789</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>38086</v>
+        <v>38095</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01887631475042254</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01202259367414917</v>
+        <v>0.01226118890268941</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02781528697923681</v>
+        <v>0.0278217904203269</v>
       </c>
     </row>
     <row r="21">
@@ -5327,19 +5327,19 @@
         <v>13187</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7507</v>
+        <v>7404</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>21499</v>
+        <v>21889</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02230127587811727</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01269450570747232</v>
+        <v>0.01252120407037397</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03635746923199851</v>
+        <v>0.03701641884682792</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>34</v>
@@ -5348,19 +5348,19 @@
         <v>41474</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>28249</v>
+        <v>29411</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>55639</v>
+        <v>57116</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.0533127482418017</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03631243452972932</v>
+        <v>0.03780667534125463</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07152146926473413</v>
+        <v>0.07342077288815095</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>49</v>
@@ -5369,19 +5369,19 @@
         <v>54661</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>40249</v>
+        <v>42085</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>72826</v>
+        <v>72385</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0399201381497812</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02939477049650859</v>
+        <v>0.03073576900832173</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05318620219650834</v>
+        <v>0.05286416150758023</v>
       </c>
     </row>
     <row r="22">
@@ -5398,19 +5398,19 @@
         <v>567762</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>557694</v>
+        <v>557263</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>575677</v>
+        <v>575894</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9601480803048997</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9431215933020659</v>
+        <v>0.9423929606218509</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9735331946280621</v>
+        <v>0.9738996230023994</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>609</v>
@@ -5419,19 +5419,19 @@
         <v>720989</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>703966</v>
+        <v>702674</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>735501</v>
+        <v>735218</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9268032559414202</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9049207641252602</v>
+        <v>0.9032599140659309</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9454576142147203</v>
+        <v>0.9450936788632033</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1209</v>
@@ -5440,19 +5440,19 @@
         <v>1288751</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1269661</v>
+        <v>1270290</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1307230</v>
+        <v>1305082</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9412035470997963</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9272610520910998</v>
+        <v>0.9277205169351445</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9546987407985486</v>
+        <v>0.9531303963685356</v>
       </c>
     </row>
     <row r="23">
@@ -5784,19 +5784,19 @@
         <v>1671</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4007</v>
+        <v>4126</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01023348143343613</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002677384251326851</v>
+        <v>0.002758508056995481</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02453344547821859</v>
+        <v>0.02526577355747395</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -5805,19 +5805,19 @@
         <v>6236</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3646</v>
+        <v>3494</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9996</v>
+        <v>10000</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.03264681894697905</v>
+        <v>0.03264681894697904</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01908355667209338</v>
+        <v>0.01829040901452581</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05232492500429896</v>
+        <v>0.05234769792561444</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -5826,19 +5826,19 @@
         <v>7908</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4861</v>
+        <v>4580</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12244</v>
+        <v>12151</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02231667484518163</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01371757336317755</v>
+        <v>0.01292523315148809</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03455344456910533</v>
+        <v>0.03429273883869028</v>
       </c>
     </row>
     <row r="5">
@@ -5855,19 +5855,19 @@
         <v>6260</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3151</v>
+        <v>3323</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11606</v>
+        <v>10650</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03833328936912481</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.019296759626372</v>
+        <v>0.02034708690560411</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07106618821956498</v>
+        <v>0.06520887312190551</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>21</v>
@@ -5876,19 +5876,19 @@
         <v>8598</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5386</v>
+        <v>5413</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13006</v>
+        <v>13036</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0450084891902335</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02819627414857438</v>
+        <v>0.02833366246096261</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06808619825345461</v>
+        <v>0.06823891429937816</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>32</v>
@@ -5897,19 +5897,19 @@
         <v>14858</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9533</v>
+        <v>10358</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>20632</v>
+        <v>20806</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04193193818489217</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02690273257370657</v>
+        <v>0.02923174484531538</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05822652378596459</v>
+        <v>0.05871665302645295</v>
       </c>
     </row>
     <row r="6">
@@ -5926,19 +5926,19 @@
         <v>155382</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>150401</v>
+        <v>150399</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>159101</v>
+        <v>158706</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9514332291974391</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9209307555377516</v>
+        <v>0.9209186360627575</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9742018480480547</v>
+        <v>0.9717873139635999</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>410</v>
@@ -5947,19 +5947,19 @@
         <v>176195</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>170722</v>
+        <v>170883</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>180578</v>
+        <v>180677</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9223446918627874</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8936991381892396</v>
+        <v>0.8945388894531516</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9452896646693512</v>
+        <v>0.9458110211115097</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>648</v>
@@ -5968,19 +5968,19 @@
         <v>331577</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>324909</v>
+        <v>324762</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>338457</v>
+        <v>337289</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.9357513869699261</v>
+        <v>0.9357513869699263</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9169336146978675</v>
+        <v>0.9165194321516352</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9551685618076917</v>
+        <v>0.9518721159090726</v>
       </c>
     </row>
     <row r="7">
@@ -6072,19 +6072,19 @@
         <v>1639</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4523</v>
+        <v>4739</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.009197791585894476</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.002671502309894374</v>
+        <v>0.002652202778558472</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02538050435931956</v>
+        <v>0.02659519524448762</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>15</v>
@@ -6093,19 +6093,19 @@
         <v>8088</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4687</v>
+        <v>4526</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12961</v>
+        <v>13034</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03341587345554795</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0193625559690056</v>
+        <v>0.01870133739534251</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05354940714908436</v>
+        <v>0.05385250762196511</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>18</v>
@@ -6114,19 +6114,19 @@
         <v>9727</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5886</v>
+        <v>5980</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>15380</v>
+        <v>15217</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02314622494801944</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01400720761561706</v>
+        <v>0.01422872431389511</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03659871639578782</v>
+        <v>0.03621049435258643</v>
       </c>
     </row>
     <row r="9">
@@ -6143,19 +6143,19 @@
         <v>4542</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2155</v>
+        <v>2173</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8801</v>
+        <v>9376</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.02548832685681181</v>
+        <v>0.0254883268568118</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0120938751586761</v>
+        <v>0.01219597906787633</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04938845179278263</v>
+        <v>0.05261603612937327</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>24</v>
@@ -6164,19 +6164,19 @@
         <v>12803</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>8186</v>
+        <v>8185</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>18891</v>
+        <v>18787</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.05289707833981331</v>
+        <v>0.0528970783398133</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03382233422900711</v>
+        <v>0.03381486084178981</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.07805097100540193</v>
+        <v>0.07762059435151186</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>32</v>
@@ -6185,19 +6185,19 @@
         <v>17345</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>11499</v>
+        <v>12394</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>24357</v>
+        <v>24699</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.04127443021781926</v>
+        <v>0.04127443021781925</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02736166247576741</v>
+        <v>0.02949318067618715</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05795936063009099</v>
+        <v>0.05877243716517928</v>
       </c>
     </row>
     <row r="10">
@@ -6214,19 +6214,19 @@
         <v>172023</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>167354</v>
+        <v>166876</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>174974</v>
+        <v>175046</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9653138815572937</v>
+        <v>0.9653138815572938</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9391137178033269</v>
+        <v>0.9364336447681538</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9818756034509771</v>
+        <v>0.9822792726060544</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>410</v>
@@ -6235,19 +6235,19 @@
         <v>221149</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>213607</v>
+        <v>213865</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>226752</v>
+        <v>227099</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9136870482046386</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8825277482541088</v>
+        <v>0.8835949894988487</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9368356661547368</v>
+        <v>0.9382698840224708</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>653</v>
@@ -6256,19 +6256,19 @@
         <v>393171</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>384814</v>
+        <v>384947</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>400464</v>
+        <v>399510</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9355793448341613</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.915693305096458</v>
+        <v>0.9160109735174988</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9529343547618164</v>
+        <v>0.9506648119750428</v>
       </c>
     </row>
     <row r="11">
@@ -6363,7 +6363,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4486</v>
+        <v>4965</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.005770751180137011</v>
@@ -6372,7 +6372,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02807533312239444</v>
+        <v>0.03107407465946837</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -6381,19 +6381,19 @@
         <v>4484</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1772</v>
+        <v>1793</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9712</v>
+        <v>9550</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.02563436030084239</v>
+        <v>0.0256343603008424</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01013137737499714</v>
+        <v>0.01024997457996534</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05552446707522131</v>
+        <v>0.05459747868117514</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -6402,19 +6402,19 @@
         <v>5406</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2387</v>
+        <v>2419</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>11498</v>
+        <v>10926</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01615136448837148</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.007132638540845965</v>
+        <v>0.007227115760182136</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03435336964431292</v>
+        <v>0.03264542901218968</v>
       </c>
     </row>
     <row r="13">
@@ -6434,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5577</v>
+        <v>5574</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01148257240410845</v>
@@ -6443,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03490118522164263</v>
+        <v>0.03488213134082187</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -6452,19 +6452,19 @@
         <v>10049</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5670</v>
+        <v>6109</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15988</v>
+        <v>16159</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.05745270076642504</v>
+        <v>0.05745270076642505</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03241561373892531</v>
+        <v>0.03492675636893398</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09140573056327259</v>
+        <v>0.09238443196257909</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>18</v>
@@ -6473,19 +6473,19 @@
         <v>11884</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7042</v>
+        <v>6954</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>18079</v>
+        <v>19130</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.0355063096494054</v>
+        <v>0.03550630964940541</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02104075212653131</v>
+        <v>0.02077862945165108</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05401788049008532</v>
+        <v>0.05715775885651482</v>
       </c>
     </row>
     <row r="14">
@@ -6502,19 +6502,19 @@
         <v>157028</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>152455</v>
+        <v>152440</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>158878</v>
+        <v>158883</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9827466764157545</v>
+        <v>0.9827466764157544</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9541273323412355</v>
+        <v>0.9540308504743177</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.994322708425502</v>
+        <v>0.9943565591431452</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>266</v>
@@ -6523,19 +6523,19 @@
         <v>160376</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>153006</v>
+        <v>153614</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>165431</v>
+        <v>165454</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9169129389327325</v>
+        <v>0.9169129389327327</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8747772514781735</v>
+        <v>0.8782516898719608</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.945809085383304</v>
+        <v>0.9459454356334298</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>456</v>
@@ -6544,19 +6544,19 @@
         <v>317404</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>309227</v>
+        <v>310067</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>323015</v>
+        <v>324386</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.948342325862223</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9239096557469744</v>
+        <v>0.9264184690614184</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9651068684123951</v>
+        <v>0.9692005999078329</v>
       </c>
     </row>
     <row r="15">
@@ -6651,16 +6651,16 @@
         <v>612</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5663</v>
+        <v>6003</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0113400077367459</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002845779850538688</v>
+        <v>0.002844545300364149</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02632981664726091</v>
+        <v>0.02790881110365307</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -6669,19 +6669,19 @@
         <v>6702</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3690</v>
+        <v>3631</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12465</v>
+        <v>12004</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0227589894293469</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.012531154318311</v>
+        <v>0.01233098655289541</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04233125397936156</v>
+        <v>0.04076472678668203</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -6690,19 +6690,19 @@
         <v>9141</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5499</v>
+        <v>5598</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15847</v>
+        <v>15304</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.01793886830641938</v>
+        <v>0.01793886830641937</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01079285347887493</v>
+        <v>0.01098574569861731</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03109919949418562</v>
+        <v>0.03003471337450157</v>
       </c>
     </row>
     <row r="17">
@@ -6722,16 +6722,16 @@
         <v>798</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6972</v>
+        <v>6515</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01242552948329335</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.00371223954643322</v>
+        <v>0.003712119397027194</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03241641775103865</v>
+        <v>0.03028832712075042</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>17</v>
@@ -6740,19 +6740,19 @@
         <v>10949</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6858</v>
+        <v>6473</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17896</v>
+        <v>18764</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0371839978605766</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02329053268709719</v>
+        <v>0.02198397014131498</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06077521003756814</v>
+        <v>0.06372231657324021</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>21</v>
@@ -6761,19 +6761,19 @@
         <v>13622</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8301</v>
+        <v>8434</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>21551</v>
+        <v>21798</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02673308204257486</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01629127106718014</v>
+        <v>0.01655178981785674</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04229363176301447</v>
+        <v>0.04277852099987866</v>
       </c>
     </row>
     <row r="18">
@@ -6790,19 +6790,19 @@
         <v>209977</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>205388</v>
+        <v>205281</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>212723</v>
+        <v>212665</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9762344627799608</v>
+        <v>0.9762344627799607</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9548977682790517</v>
+        <v>0.9544003784503907</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9890016576262015</v>
+        <v>0.9887324764844516</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>495</v>
@@ -6811,19 +6811,19 @@
         <v>276810</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>269374</v>
+        <v>267141</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>282448</v>
+        <v>281863</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9400570127100768</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.914802304322913</v>
+        <v>0.9072200069265022</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9592024869531526</v>
+        <v>0.9572154957544435</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>814</v>
@@ -6832,19 +6832,19 @@
         <v>486787</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>476978</v>
+        <v>478149</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>493442</v>
+        <v>493675</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9553280496510057</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9360778876253616</v>
+        <v>0.938375622633982</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.968386969769704</v>
+        <v>0.968844950321809</v>
       </c>
     </row>
     <row r="19">
@@ -6936,19 +6936,19 @@
         <v>6672</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3638</v>
+        <v>3585</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11664</v>
+        <v>11441</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.009312702217684815</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.005078216534076775</v>
+        <v>0.005004246833234258</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01628131712506798</v>
+        <v>0.0159705405641793</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>47</v>
@@ -6957,19 +6957,19 @@
         <v>25510</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>18315</v>
+        <v>18718</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>34252</v>
+        <v>34294</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02826759284800224</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02029536926950113</v>
+        <v>0.02074202059516719</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03795438082822851</v>
+        <v>0.03800159762154692</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>59</v>
@@ -6978,19 +6978,19 @@
         <v>32181</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>24402</v>
+        <v>24096</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>41253</v>
+        <v>41736</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01987936637047489</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01507366404212529</v>
+        <v>0.01488457006199414</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02548293431000347</v>
+        <v>0.02578151997570391</v>
       </c>
     </row>
     <row r="21">
@@ -7007,19 +7007,19 @@
         <v>15310</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>10135</v>
+        <v>9533</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>23179</v>
+        <v>22428</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02137074787185815</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01414700823392642</v>
+        <v>0.01330747222978109</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0323555659502956</v>
+        <v>0.03130626130258966</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>78</v>
@@ -7028,19 +7028,19 @@
         <v>42399</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>33645</v>
+        <v>32620</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>53442</v>
+        <v>52062</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04698307761305073</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03728274944543554</v>
+        <v>0.03614643460750831</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05921955477307701</v>
+        <v>0.05769070952802288</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>103</v>
@@ -7049,19 +7049,19 @@
         <v>57709</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>47773</v>
+        <v>47503</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>71138</v>
+        <v>70415</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0356486929058869</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02951063630029996</v>
+        <v>0.02934420903501487</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04394394849262884</v>
+        <v>0.04349717579770845</v>
       </c>
     </row>
     <row r="22">
@@ -7078,19 +7078,19 @@
         <v>694410</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>685628</v>
+        <v>686049</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>700515</v>
+        <v>700921</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.969316549910457</v>
+        <v>0.9693165499104572</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9570580046396788</v>
+        <v>0.9576467243009044</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9778391412897371</v>
+        <v>0.9784051827411809</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1581</v>
@@ -7099,19 +7099,19 @@
         <v>834530</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>822002</v>
+        <v>821894</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>845745</v>
+        <v>845962</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9247493295389471</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9108666577786397</v>
+        <v>0.9107475678684885</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9371772064895569</v>
+        <v>0.9374173174437235</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2571</v>
@@ -7120,19 +7120,19 @@
         <v>1528940</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1513639</v>
+        <v>1513413</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1541441</v>
+        <v>1540897</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.9444719407236383</v>
+        <v>0.9444719407236384</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9350203918996584</v>
+        <v>0.9348806541780545</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9521943870835697</v>
+        <v>0.951858294455422</v>
       </c>
     </row>
     <row r="23">
